--- a/Netbeans/ANA-ADDIX/output/data_storge/moguravr.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storge/moguravr.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1447">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1751">
   <x:si>
     <x:t>Url</x:t>
   </x:si>
@@ -4377,6 +4377,918 @@
   </x:si>
   <x:si>
     <x:t>https://www.moguravr.com/dive-xr-festival-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nijisanji-kawaii-cafe/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-ar-mr-session/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-lecture-contents-schedule/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/wfle-reality-studio/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/harevutai-vtuber-live/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-new-speakers-13/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/auxuman-vol-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/audio-scape/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-new-speakers-12/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-early-ticket/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/dreamglass-air-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/6d-ai-device-expansion/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/dreamglass-air/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/auggie-trailer/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/conexio-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/weatheroid-airi-vtuber/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/decode-2018-iot-ai/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/1-to-10-drive-vr-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ambiotherm/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/theta-iot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kaf-special-program-topics/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/audio-trip-calorie-consumption/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cedec2019-tetsuya-mizuguchi/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/scape-technologies-holoscape/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kddi-grampus-5g-xr-partnership/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kddi-dena-5g-xr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vtuber-hatoba-tsugu-5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/innovation-world-festa-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gatebox-unicast-partnership/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/faceapp/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/world-haptics-conference-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/summer-vacation-vr-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gatebox-businesspartner-program/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/leap-motion-acquisition/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/haptic-vr-controller/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-expo-introduction-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ultraleap-change-name/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-xr-meetup-30/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrgo-mini-kickstarter/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/woojer-edge/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/mogura-vr-expo/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/apple-ar-glasses-look-back/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-5-5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cedec-2018-haptics/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/magic-leap-one-hands-on-report/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/magic-leap-one-ce/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/insomnia-train/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/magic-leap-one-motion-controller/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-model-h/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ana-avatar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-movie-event-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-university-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/rgb-d-slam-solution/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gatebox-unicast-partnership/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/15th-rock-ventures-fund-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/mogura-vr-expo/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyu-land-softbank-smart-city/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tdk-tof-sensor-ch-101/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/sendai-subsidy-vr-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kudan-synopsys/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kanazawa-it-vrskiing/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kudan-listing/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-funding/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/synamon-kddi-lab/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ogasawara-telexistence/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ar-oit-schneider-electric/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tobitate/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kudan-zenrin-datacom/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ar-mr-mogura-abeam-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/bandainamco-accelerator/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/oculus-rift-new-release-18-4-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/toyota-research-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-xr-meetup-30/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gatebox-unicast-partnership/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/robomaster-s1-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/jal-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gitai-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/mit-roma/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/t-hr3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-funding/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/redshift-ar-and-robot-arm/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/fusion-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/oculus-go-robot-linkage/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-model-h/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/zhongguo-jianshe-yinhang-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gitai-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/stormtrooper-ar-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/2017-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/stormtrooper-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/robot-vr-ai/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/oculus-quest-haptic-glove/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/apple-ring-type-device/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/microsoft-vr-mat/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/playstation-5-announce/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/smart-skin/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/us-navy-magic-leap/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/equipx-hapbeat/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/sense-roid-type-s/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/facebook-reality-labs-haptics/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/world-haptics-conference-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/innovative-technologies-2019-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/exos-wrist-dk2-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/reactive-grip/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/sony-immersion-corp-license-signed/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/microsoft-torc/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/woojer-vest/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/exos-wrist-hand-tracking-edition/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nissan-haptx/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/toppan-virtual-character/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/jal-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gitai-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-funding/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gitai-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/bomb-robot-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/taisei-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gyroeye-holo-2019-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-xr-meetup-30/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-8-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-6-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vtuber-business-case-summary/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-3-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/dnp-xvi-virtual-character-service/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/social-vr-hacking-measures/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kt-5gservice/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/insta360-pro2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/transray-light-field/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololab-itoki-holo-communiation/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-neutrans/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololab-foundation/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-8-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/itoki-demonstration-test/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/docomo-5g-xr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/expo-2019-osaka-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololab-5g-mr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/content-tokyo-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nec-vaqso-smell-reproduction/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrarmr-bizexpo-tokyo-exhibitor-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrarmr-bizexpo-tokyo-exhibitor-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrc-award-2018-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrc-award-2018-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/neutrans-biz/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/content-tokyo-2018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/virtualitics-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nec-vr-service/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololens-nomadeec/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololens-matome/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-medical-redefinition/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-now/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/idealens/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/microsoft-hololens-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-news-81/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/creek-and-river-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gree-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/iss-ar-vr-live/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cedec2019-ariena-lab/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ricoh-jaxa-space-camera/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/wonderscope-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/yspace-science-workshop/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nasa-spacesuit-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/space-vr-contents-product-service/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kaguya-luna-21/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nasa-ar-notebook/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cern-bigbang-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gitai-vr-robot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/moon-kids-camp/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/iss-vr-camera/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/seedling/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vtuber-mahiro-alice/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/the-void-oc5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/spacex-vr-live/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vuzix-hmd/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/avatar-x-program/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/fundamentalvr-funding/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/mediview-xr-funding/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/magic-leap-health/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/jollygood-funding-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/unite-tokyo-2019-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/uraraka-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/medivis-surgicalar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/holoeyes-iti/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/bipsee-medical-xr-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-11/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/holoeyes-funding-2019-04/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-10/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-9/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-8/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-xr-startups-program5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-7/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-6/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-medical-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nreallight-dev-ver-reservation-acceptance/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-ar-mr-session/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nreallight-ar-art/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-expo-introduction-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/thirdeye-x2-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-expo-introduction-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/invisible-art-in-public/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-lecture-contents-schedule/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-expo-introduction-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-10-5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ar-mr-glass-summary-201910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nreal-china-unicom-cooperation/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/arizona-sunshine-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vive-pro-sale/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/eden-snacker/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/il-divino-michelangelos-sistine-ceiling-in-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/steam-vr-ranking-19-11-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-idol-enogu-5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-ar-mr-weekly-news-19-11-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/oculus-quest-new-release-19-11-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/varjo-vr-2-pro-report/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/a-fishermans-tale-oculus-quest/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/valve-index-info-summary-201910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/xr-kaigi-2019-session-introduction-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/sie-ps5-controller-patent/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/half-life-alyx-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/virtual-ocean-project-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/pwc-seeing-is-believing/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/auggle-s/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/valve-index-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/valve-index-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/virtual-singer-system/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kizuna-ai-8th-original-music/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/chara-talker/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/akihabara-tourism-ambassador/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vtuber-trend-oversea-symposium/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nurve-norel-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/amanaimages-360/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cedec2017-interface/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nttdata-hololens/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/dokodemo-store-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-house-preview/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/crewl-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-news-24/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/newspickup160215/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/virtual-changes-architecture/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/toa-const-work-boat-ar-navi/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/honeycomb-lab-takenaka-hololens/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/smcon-hololens/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/redshift-2019-03/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hololens-2-synchro-xr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/unity-vr-archi-contest-2019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/dhw-vr-workshop/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/colas-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/redshift-ar-and-robot-arm/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyu-cnst-vr-app/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-anzen-training-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ar-cad-cloud-pr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-remote-monitoring-ecomott/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/cvk-360/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/komatsu-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kentaku-hololens/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/space-museum-jaxa/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/china-vr-theme-park/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ana-avatar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/reality-avatar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/reality-avatar-tester/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/avatar-x-program/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/ana-hd-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/kayak-vr-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/oculus-go-robot-linkage/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vtuber-project-summary/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/reality-festival-connect/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrc-award-2018-0718/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/telexistence-model-h/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-development-rink/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-news-100/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/immersv-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/immersv-mcj/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/saw-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-promotion-consulting/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vertebrae-ad-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nike-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-advertisement/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/magic-leap-ar-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/yume-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/gvr-fund/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/holoeyes-meetup/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/nike-ar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/tokyo-vr-startups/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/htcvr-service/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/hawaii-vr-app-immersv/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vive-x-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vrize-ad/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vivex-vr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.moguravr.com/vr-news-23/</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -4781,7 +5693,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A73"/>
+  <x:dimension ref="A1:A92"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -5155,6 +6067,101 @@
     <x:row r="73">
       <x:c r="A73" t="s">
         <x:v>1399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>1447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>1448</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>1449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>1450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>1451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>1452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>1453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>1454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>1455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>1456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>1457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>1458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>1459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>1460</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>1461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>1462</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>1463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>1464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>1465</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5171,7 +6178,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A54"/>
+  <x:dimension ref="A1:A73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -5450,6 +6457,101 @@
     <x:row r="54">
       <x:c r="A54" t="s">
         <x:v>1431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>1608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>1609</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>1610</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>1611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>1612</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>1613</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1614</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1615</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1616</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>1618</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>1619</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>1620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>1621</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>1622</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>1623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>1624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>1625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>1626</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5466,7 +6568,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A60"/>
+  <x:dimension ref="A1:A79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -5775,6 +6877,101 @@
     <x:row r="60">
       <x:c r="A60" t="s">
         <x:v>1434</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1627</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1628</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1629</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1630</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>1631</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>1632</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>1633</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>1634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>1635</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>1636</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>1637</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>1638</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>1639</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>1640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>1641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>1642</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>1643</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>1644</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>1645</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5791,7 +6988,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A161"/>
+  <x:dimension ref="A1:A181"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -6605,6 +7802,106 @@
     <x:row r="161">
       <x:c r="A161" t="s">
         <x:v>1439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>1646</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" t="s">
+        <x:v>1647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>1648</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>1649</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>1650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" t="s">
+        <x:v>1651</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" t="s">
+        <x:v>1652</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169">
+      <x:c r="A169" t="s">
+        <x:v>1653</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170">
+      <x:c r="A170" t="s">
+        <x:v>1654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171">
+      <x:c r="A171" t="s">
+        <x:v>1655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172">
+      <x:c r="A172" t="s">
+        <x:v>1656</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173">
+      <x:c r="A173" t="s">
+        <x:v>1657</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174">
+      <x:c r="A174" t="s">
+        <x:v>1658</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175">
+      <x:c r="A175" t="s">
+        <x:v>1659</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" t="s">
+        <x:v>1660</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177">
+      <x:c r="A177" t="s">
+        <x:v>1661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178">
+      <x:c r="A178" t="s">
+        <x:v>1662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179">
+      <x:c r="A179" t="s">
+        <x:v>1663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180">
+      <x:c r="A180" t="s">
+        <x:v>1664</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181">
+      <x:c r="A181" t="s">
+        <x:v>1665</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6621,7 +7918,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A844"/>
+  <x:dimension ref="A1:A864"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -10850,6 +12147,106 @@
     <x:row r="844">
       <x:c r="A844" t="s">
         <x:v>1444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="845">
+      <x:c r="A845" t="s">
+        <x:v>1666</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="846">
+      <x:c r="A846" t="s">
+        <x:v>1667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="847">
+      <x:c r="A847" t="s">
+        <x:v>1668</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="848">
+      <x:c r="A848" t="s">
+        <x:v>1669</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="849">
+      <x:c r="A849" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="850">
+      <x:c r="A850" t="s">
+        <x:v>1671</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="851">
+      <x:c r="A851" t="s">
+        <x:v>1672</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="852">
+      <x:c r="A852" t="s">
+        <x:v>1673</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="853">
+      <x:c r="A853" t="s">
+        <x:v>1674</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="854">
+      <x:c r="A854" t="s">
+        <x:v>1675</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="855">
+      <x:c r="A855" t="s">
+        <x:v>1676</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="856">
+      <x:c r="A856" t="s">
+        <x:v>1677</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="857">
+      <x:c r="A857" t="s">
+        <x:v>1678</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="858">
+      <x:c r="A858" t="s">
+        <x:v>1679</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="859">
+      <x:c r="A859" t="s">
+        <x:v>1680</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="860">
+      <x:c r="A860" t="s">
+        <x:v>1681</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="861">
+      <x:c r="A861" t="s">
+        <x:v>1682</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="862">
+      <x:c r="A862" t="s">
+        <x:v>1683</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="863">
+      <x:c r="A863" t="s">
+        <x:v>1684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="864">
+      <x:c r="A864" t="s">
+        <x:v>1685</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10866,7 +12263,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A27"/>
+  <x:dimension ref="A1:A41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11010,6 +12407,76 @@
     <x:row r="27">
       <x:c r="A27" t="s">
         <x:v>1445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>1686</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>1687</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>1688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>1689</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>1690</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>1691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>1692</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>1693</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>1694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>1695</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>1696</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>1697</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>1698</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>1699</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11026,7 +12493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A50"/>
+  <x:dimension ref="A1:A69"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11285,6 +12752,101 @@
     <x:row r="50">
       <x:c r="A50" t="s">
         <x:v>1300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>1700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>1701</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>1702</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>1703</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>1704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>1705</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>1706</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>1707</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>1708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>1709</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1710</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1712</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>1714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>1715</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>1716</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>1717</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>1718</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11301,7 +12863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A25"/>
+  <x:dimension ref="A1:A37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11435,6 +12997,66 @@
     <x:row r="25">
       <x:c r="A25" t="s">
         <x:v>1446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>1719</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>1720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>1721</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>1722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>1723</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>1724</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>1725</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>1726</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>1727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>1728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>1729</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>1730</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11451,7 +13073,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A22"/>
+  <x:dimension ref="A1:A23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11570,6 +13192,11 @@
     <x:row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A22" s="5" t="s">
         <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>1731</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11586,7 +13213,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A27"/>
+  <x:dimension ref="A1:A46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11730,6 +13357,101 @@
     <x:row r="27" spans="1:1">
       <x:c r="A27" s="4" t="s">
         <x:v>827</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>1732</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>1733</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>1734</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>1735</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>1736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>1737</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>1738</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>1739</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>1740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>1741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>1742</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>1743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>1744</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>1745</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>1746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>1747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>1748</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>1749</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>1750</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11746,7 +13468,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A70"/>
+  <x:dimension ref="A1:A89"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12105,6 +13827,101 @@
     <x:row r="70">
       <x:c r="A70" t="s">
         <x:v>1404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>1466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>1467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>1468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>1469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>1470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>1471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>1472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>1473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>1474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>1475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>1476</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>1477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>1478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>1479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>1480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>1481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>1482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>1483</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>1484</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12121,7 +13938,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A45"/>
+  <x:dimension ref="A1:A64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12355,6 +14172,101 @@
     <x:row r="45">
       <x:c r="A45" t="s">
         <x:v>1409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>1485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>1486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>1487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>1488</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>1489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>1490</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>1491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>1492</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>1493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>1494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>1495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>1496</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>1497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>1498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>1499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12371,7 +14283,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A33"/>
+  <x:dimension ref="A1:A52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12545,6 +14457,101 @@
     <x:row r="33">
       <x:c r="A33" t="s">
         <x:v>1410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>1504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>1505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>1506</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>1507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>1508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>1509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>1510</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>1511</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>1512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>1513</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>1514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>1515</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>1516</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>1517</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>1518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>1519</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>1520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>1521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>1522</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12561,7 +14568,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A49"/>
+  <x:dimension ref="A1:A68"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12815,6 +14822,101 @@
     <x:row r="49">
       <x:c r="A49" t="s">
         <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>1523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>1524</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>1525</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>1527</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>1528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>1529</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>1530</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>1531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>1532</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>1533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1535</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>1538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>1539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>1540</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>1541</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12831,7 +14933,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A60"/>
+  <x:dimension ref="A1:A79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13140,6 +15242,101 @@
     <x:row r="60">
       <x:c r="A60" t="s">
         <x:v>1418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1542</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>1544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>1545</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>1546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>1547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>1548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>1549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>1550</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>1551</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>1552</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>1553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>1554</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>1555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>1556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>1558</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>1559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>1560</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13156,7 +15353,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A43"/>
+  <x:dimension ref="A1:A62"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13380,6 +15577,101 @@
     <x:row r="43">
       <x:c r="A43" t="s">
         <x:v>1423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>1561</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>1562</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>1563</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>1564</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>1565</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>1566</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>1567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>1568</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>1569</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>1570</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>1571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>1572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>1573</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>1574</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>1575</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>1577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>1578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>1579</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13396,7 +15688,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A25"/>
+  <x:dimension ref="A1:A44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13530,6 +15822,101 @@
     <x:row r="25">
       <x:c r="A25" t="s">
         <x:v>1426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>1580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>1581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>1582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>1583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>1586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>1588</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>1589</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>1590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>1591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>1592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>1593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>1594</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>1595</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>1596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>1598</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13546,7 +15933,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A12"/>
+  <x:dimension ref="A1:A21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13617,6 +16004,51 @@
         <x:v>1427</x:v>
       </x:c>
     </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>1599</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>1600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>1601</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>1602</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>1603</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>1604</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>1605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>1606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>1607</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
